--- a/tic2.xlsx
+++ b/tic2.xlsx
@@ -300,25 +300,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Iepuri</c:v>
+                  <c:v>Vulpi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mistreti</c:v>
+                  <c:v>Caprioare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Capre</c:v>
+                  <c:v>Ursi</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Lupi</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Vulpi</c:v>
+                  <c:v>Capre</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Ursi</c:v>
+                  <c:v>Mistreti</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Caprioare</c:v>
+                  <c:v>Iepuri</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -330,25 +330,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,25 +432,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Iepuri</c:v>
+                  <c:v>Vulpi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mistreti</c:v>
+                  <c:v>Caprioare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Capre</c:v>
+                  <c:v>Ursi</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Lupi</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Vulpi</c:v>
+                  <c:v>Capre</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Ursi</c:v>
+                  <c:v>Mistreti</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Caprioare</c:v>
+                  <c:v>Iepuri</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -462,25 +462,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,25 +564,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Iepuri</c:v>
+                  <c:v>Vulpi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mistreti</c:v>
+                  <c:v>Caprioare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Capre</c:v>
+                  <c:v>Ursi</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Lupi</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Vulpi</c:v>
+                  <c:v>Capre</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Ursi</c:v>
+                  <c:v>Mistreti</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Caprioare</c:v>
+                  <c:v>Iepuri</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -594,25 +594,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,25 +696,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Iepuri</c:v>
+                  <c:v>Vulpi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mistreti</c:v>
+                  <c:v>Caprioare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Capre</c:v>
+                  <c:v>Ursi</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Lupi</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Vulpi</c:v>
+                  <c:v>Capre</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Ursi</c:v>
+                  <c:v>Mistreti</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Caprioare</c:v>
+                  <c:v>Iepuri</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -726,25 +726,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,38 +873,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1524,16 +1492,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1550,93 +1518,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagine 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9848850" y="2057400"/>
-          <a:ext cx="3438525" cy="3438525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>145939</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>79106</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagine 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1657350" y="942975"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1908,7 +1789,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,7 +1801,7 @@
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1945,64 +1826,64 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f>B3+C3+D3</f>
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F3" t="str">
         <f>IF(D3=0,"pericol disparitie",IF(AND(D3&gt;0,D3&lt;11),"normal",IF(D3&gt;10,"suprapopulare")))</f>
-        <v>suprapopulare</v>
+        <v>pericol disparitie</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <f>B4+C4+D4</f>
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F9" si="0">IF(D4=0,"pericol disparitie",IF(AND(D4&gt;0,D4&lt;11),"normal",IF(D4&gt;10,"suprapopulare")))</f>
-        <v>suprapopulare</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>12</v>
-      </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
       </c>
       <c r="E5">
         <f>B5+C5+D5</f>
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -2033,42 +1914,42 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <f>B7+C7+D7</f>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>pericol disparitie</v>
+        <v>suprapopulare</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <f>B8+C8+D8</f>
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -2077,24 +1958,24 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <f>B9+C9+D9</f>
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>normal</v>
+        <v>suprapopulare</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2162,9 +2043,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:E9">
-    <sortCondition descending="1" ref="B3:B9"/>
-    <sortCondition descending="1" ref="C3:C9"/>
-    <sortCondition descending="1" ref="D3:D9"/>
+    <sortCondition ref="E3:E9"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -2192,6 +2071,5 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>